--- a/medicine/Psychotrope/Pils_(bière)/Pils_(bière).xlsx
+++ b/medicine/Psychotrope/Pils_(bière)/Pils_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pils_(bi%C3%A8re)</t>
+          <t>Pils_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bière pils, également appelée pilsener, pilsen ou pilsner, du nom de la ville de Pilsen en République tchèque (Plzeň en tchèque, Pilsen en allemand), est un type de bière blonde et limpide, de fermentation basse apparenté au type lager. Elle titre environ 5 degrés d'alcool et possède une amertume moyenne, dépendant du type de houblon utilisé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bière pils, également appelée pilsener, pilsen ou pilsner, du nom de la ville de Pilsen en République tchèque (Plzeň en tchèque, Pilsen en allemand), est un type de bière blonde et limpide, de fermentation basse apparenté au type lager. Elle titre environ 5 degrés d'alcool et possède une amertume moyenne, dépendant du type de houblon utilisé.
 La pilsener se boit plus fraîche qu'une bière de fermentation haute, mais non glacée, généralement entre 10 et 12 degrés, afin d'en faire ressortir les arômes.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pils_(bi%C3%A8re)</t>
+          <t>Pils_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce type de bière a été créé le 5 octobre 1842 par Josef Groll, dans la « Brasserie des Bourgeois » (Bürgerlichen Brauhaus), à Pilsen, en Bohême. La nouvelle bière rencontre un succès très rapide à tel point qu'en 1859, la Brasserie des Bourgeois juge bon de déposer le mot allemand Pilsner (« de Pilsen »), à la fois marque et label d'origine.
 Le mode de brassage révolutionnaire permet la production d'une bière claire et dorée, à une époque où les bières sont soit brunes, soit troubles en raison du résidu de levure dans la bouteille ou le fût.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pils_(bi%C3%A8re)</t>
+          <t>Pils_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Brassage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La densité primitive de moût est de l'ordre de 11 à 12,5 °P. La fermentation a lieu entre 5 et 10 °C. La bière est ensuite filtrée, ce qui lui confère sa limpidité.
 Elle est généralement pasteurisée quand elle est mise en bouteille.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pils_(bi%C3%A8re)</t>
+          <t>Pils_(bière)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Marques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui le terme n'est plus réservé à la seule Pilsner Urquell, et bien d'autres marques profitent de cette appellation.
 Quelques Pils produites en France : Meteor Pils, Ancre et en Belgique : Jupiler, Maes et Stella Artois.
